--- a/public/sr-excel/sales-report-${formattedStartDate}-${formattedEndDate}.xlsx
+++ b/public/sr-excel/sales-report-${formattedStartDate}-${formattedEndDate}.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Order ID</t>
   </si>
@@ -25,25 +25,28 @@
     <t>Payment Method</t>
   </si>
   <si>
-    <t>C9PKGJAJ</t>
-  </si>
-  <si>
-    <t>31/1/2024</t>
-  </si>
-  <si>
-    <t>34000.00</t>
+    <t>OZL125JN</t>
+  </si>
+  <si>
+    <t>3/2/2024</t>
+  </si>
+  <si>
+    <t>21560.00</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>HPH80CU1</t>
+    <t>7CEJ9HBB</t>
+  </si>
+  <si>
+    <t>15400.00</t>
   </si>
   <si>
     <t>Total Sales Amount</t>
   </si>
   <si>
-    <t>68000.00</t>
+    <t>36960.00</t>
   </si>
 </sst>
 </file>
@@ -462,7 +465,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -470,10 +473,10 @@
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/public/sr-excel/sales-report-${formattedStartDate}-${formattedEndDate}.xlsx
+++ b/public/sr-excel/sales-report-${formattedStartDate}-${formattedEndDate}.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Order ID</t>
   </si>
@@ -25,6 +25,30 @@
     <t>Payment Method</t>
   </si>
   <si>
+    <t>0E61A1OI</t>
+  </si>
+  <si>
+    <t>1/2/2024</t>
+  </si>
+  <si>
+    <t>22000.00</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>PS1B7CFH</t>
+  </si>
+  <si>
+    <t>2/2/2024</t>
+  </si>
+  <si>
+    <t>87001.00</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
     <t>OZL125JN</t>
   </si>
   <si>
@@ -34,19 +58,22 @@
     <t>21560.00</t>
   </si>
   <si>
-    <t>COD</t>
-  </si>
-  <si>
     <t>7CEJ9HBB</t>
   </si>
   <si>
     <t>15400.00</t>
   </si>
   <si>
+    <t>QVSI15S4</t>
+  </si>
+  <si>
+    <t>4/2/2024</t>
+  </si>
+  <si>
     <t>Total Sales Amount</t>
   </si>
   <si>
-    <t>36960.00</t>
+    <t>161361.00</t>
   </si>
 </sst>
 </file>
@@ -423,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="4" width="25" customWidth="1"/>
@@ -462,21 +489,63 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
